--- a/Spectral_data/top-down/0912_noL_6sb_out.xlsx
+++ b/Spectral_data/top-down/0912_noL_6sb_out.xlsx
@@ -45,7 +45,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>11/12/2020 10:14</t>
+    <t>15/12/2020 09:48</t>
   </si>
   <si>
     <t>analysis:</t>
@@ -4585,7 +4585,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="3">
-        <v>3.894</v>
+        <v>3.932</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4614,7 +4614,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="3">
-        <v>0.197</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4643,7 +4643,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="3">
-        <v>0.158</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4672,7 +4672,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="3">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4701,7 +4701,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="3">
-        <v>1.174</v>
+        <v>1.185</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4730,7 +4730,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="3">
-        <v>3.408</v>
+        <v>3.441</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4759,7 +4759,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="3">
-        <v>0.449</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4788,7 +4788,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -4820,7 +4820,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="3">
-        <v>0.423</v>
+        <v>0.427</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
@@ -4852,7 +4852,7 @@
         <v>54</v>
       </c>
       <c r="I11" s="3">
-        <v>0.619</v>
+        <v>0.625</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -4884,7 +4884,7 @@
         <v>57</v>
       </c>
       <c r="I12" s="3">
-        <v>0.419</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4913,7 +4913,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="3">
-        <v>0.386</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4942,7 +4942,7 @@
         <v>61</v>
       </c>
       <c r="I14" s="3">
-        <v>8.117000000000001</v>
+        <v>8.195</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4971,7 +4971,7 @@
         <v>63</v>
       </c>
       <c r="I15" s="3">
-        <v>3.786</v>
+        <v>3.823</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5000,7 +5000,7 @@
         <v>63</v>
       </c>
       <c r="I16" s="3">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="J16" t="s">
         <v>64</v>
@@ -5032,7 +5032,7 @@
         <v>66</v>
       </c>
       <c r="I17" s="3">
-        <v>4.794</v>
+        <v>4.841</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5061,7 +5061,7 @@
         <v>66</v>
       </c>
       <c r="I18" s="3">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5090,7 +5090,7 @@
         <v>68</v>
       </c>
       <c r="I19" s="3">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5119,7 +5119,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="3">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5148,7 +5148,7 @@
         <v>72</v>
       </c>
       <c r="I21" s="3">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5177,7 +5177,7 @@
         <v>74</v>
       </c>
       <c r="I22" s="3">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5206,7 +5206,7 @@
         <v>76</v>
       </c>
       <c r="I23" s="3">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5235,7 +5235,7 @@
         <v>78</v>
       </c>
       <c r="I24" s="3">
-        <v>0.239</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5264,7 +5264,7 @@
         <v>78</v>
       </c>
       <c r="I25" s="3">
-        <v>0.312</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5293,7 +5293,7 @@
         <v>80</v>
       </c>
       <c r="I26" s="3">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5322,7 +5322,7 @@
         <v>82</v>
       </c>
       <c r="I27" s="3">
-        <v>1.992</v>
+        <v>2.011</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5351,7 +5351,7 @@
         <v>82</v>
       </c>
       <c r="I28" s="3">
-        <v>3.02</v>
+        <v>3.049</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5380,7 +5380,7 @@
         <v>84</v>
       </c>
       <c r="I29" s="3">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
       <c r="J29" t="s">
         <v>85</v>
@@ -5412,7 +5412,7 @@
         <v>87</v>
       </c>
       <c r="I30" s="3">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5470,7 +5470,7 @@
         <v>91</v>
       </c>
       <c r="I32" s="3">
-        <v>0.801</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5499,7 +5499,7 @@
         <v>91</v>
       </c>
       <c r="I33" s="3">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5557,7 +5557,7 @@
         <v>95</v>
       </c>
       <c r="I35" s="3">
-        <v>0.899</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5586,7 +5586,7 @@
         <v>95</v>
       </c>
       <c r="I36" s="3">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5615,7 +5615,7 @@
         <v>97</v>
       </c>
       <c r="I37" s="3">
-        <v>0.897</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5644,7 +5644,7 @@
         <v>99</v>
       </c>
       <c r="I38" s="3">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5673,7 +5673,7 @@
         <v>101</v>
       </c>
       <c r="I39" s="3">
-        <v>15.59</v>
+        <v>15.741</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5702,7 +5702,7 @@
         <v>101</v>
       </c>
       <c r="I40" s="3">
-        <v>2.516</v>
+        <v>2.541</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5731,7 +5731,7 @@
         <v>103</v>
       </c>
       <c r="I41" s="3">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5760,7 +5760,7 @@
         <v>105</v>
       </c>
       <c r="I42" s="3">
-        <v>0.414</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5789,7 +5789,7 @@
         <v>107</v>
       </c>
       <c r="I43" s="3">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5847,7 +5847,7 @@
         <v>111</v>
       </c>
       <c r="I45" s="3">
-        <v>0.259</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5876,7 +5876,7 @@
         <v>113</v>
       </c>
       <c r="I46" s="3">
-        <v>0.241</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5905,7 +5905,7 @@
         <v>115</v>
       </c>
       <c r="I47" s="3">
-        <v>3.571</v>
+        <v>3.606</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5934,7 +5934,7 @@
         <v>117</v>
       </c>
       <c r="I48" s="3">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5963,7 +5963,7 @@
         <v>117</v>
       </c>
       <c r="I49" s="3">
-        <v>1.005</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5992,7 +5992,7 @@
         <v>119</v>
       </c>
       <c r="I50" s="3">
-        <v>0.241</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6021,7 +6021,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="3">
-        <v>2.077</v>
+        <v>2.097</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6050,7 +6050,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="3">
-        <v>0.151</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6079,7 +6079,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="3">
-        <v>0.609</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6108,7 +6108,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="3">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6137,7 +6137,7 @@
         <v>129</v>
       </c>
       <c r="I55" s="3">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6166,7 +6166,7 @@
         <v>129</v>
       </c>
       <c r="I56" s="3">
-        <v>0.41</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6195,7 +6195,7 @@
         <v>131</v>
       </c>
       <c r="I57" s="3">
-        <v>0.298</v>
+        <v>0.301</v>
       </c>
       <c r="J57" t="s">
         <v>132</v>
@@ -6227,7 +6227,7 @@
         <v>134</v>
       </c>
       <c r="I58" s="3">
-        <v>1.387</v>
+        <v>1.401</v>
       </c>
       <c r="J58" t="s">
         <v>135</v>
@@ -6259,7 +6259,7 @@
         <v>134</v>
       </c>
       <c r="I59" s="3">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="J59" t="s">
         <v>136</v>
@@ -6291,7 +6291,7 @@
         <v>138</v>
       </c>
       <c r="I60" s="3">
-        <v>2.383</v>
+        <v>2.407</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6320,7 +6320,7 @@
         <v>140</v>
       </c>
       <c r="I61" s="3">
-        <v>0.423</v>
+        <v>0.427</v>
       </c>
       <c r="J61" t="s">
         <v>141</v>
@@ -6352,7 +6352,7 @@
         <v>140</v>
       </c>
       <c r="I62" s="3">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="J62" t="s">
         <v>142</v>
@@ -6384,7 +6384,7 @@
         <v>144</v>
       </c>
       <c r="I63" s="3">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="J63" t="s">
         <v>145</v>
@@ -6416,7 +6416,7 @@
         <v>147</v>
       </c>
       <c r="I64" s="3">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="J64" t="s">
         <v>148</v>
@@ -6448,7 +6448,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="3">
-        <v>0.294</v>
+        <v>0.297</v>
       </c>
       <c r="J65" t="s">
         <v>151</v>
@@ -6480,7 +6480,7 @@
         <v>153</v>
       </c>
       <c r="I66" s="3">
-        <v>5.041</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6509,7 +6509,7 @@
         <v>155</v>
       </c>
       <c r="I67" s="3">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="J67" t="s">
         <v>156</v>
@@ -6541,7 +6541,7 @@
         <v>158</v>
       </c>
       <c r="I68" s="3">
-        <v>0.58</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6570,7 +6570,7 @@
         <v>160</v>
       </c>
       <c r="I69" s="3">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -6599,7 +6599,7 @@
         <v>162</v>
       </c>
       <c r="I70" s="3">
-        <v>0.379</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6628,7 +6628,7 @@
         <v>162</v>
       </c>
       <c r="I71" s="3">
-        <v>0.744</v>
+        <v>0.751</v>
       </c>
       <c r="J71" t="s">
         <v>163</v>
@@ -6660,7 +6660,7 @@
         <v>165</v>
       </c>
       <c r="I72" s="3">
-        <v>1.448</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6689,7 +6689,7 @@
         <v>167</v>
       </c>
       <c r="I73" s="3">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="J73" t="s">
         <v>168</v>
@@ -6721,7 +6721,7 @@
         <v>170</v>
       </c>
       <c r="I74" s="3">
-        <v>0.254</v>
+        <v>0.257</v>
       </c>
       <c r="J74" t="s">
         <v>171</v>
@@ -6753,7 +6753,7 @@
         <v>170</v>
       </c>
       <c r="I75" s="3">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="J75" t="s">
         <v>172</v>
@@ -6785,7 +6785,7 @@
         <v>174</v>
       </c>
       <c r="I76" s="3">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="J76" t="s">
         <v>175</v>
@@ -6817,7 +6817,7 @@
         <v>177</v>
       </c>
       <c r="I77" s="3">
-        <v>0.225</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6846,7 +6846,7 @@
         <v>179</v>
       </c>
       <c r="I78" s="3">
-        <v>6.931</v>
+        <v>6.998</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6875,7 +6875,7 @@
         <v>179</v>
       </c>
       <c r="I79" s="3">
-        <v>0.703</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -6904,7 +6904,7 @@
         <v>181</v>
       </c>
       <c r="I80" s="3">
-        <v>0.903</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6933,7 +6933,7 @@
         <v>183</v>
       </c>
       <c r="I81" s="3">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6962,7 +6962,7 @@
         <v>185</v>
       </c>
       <c r="I82" s="3">
-        <v>0.232</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6991,7 +6991,7 @@
         <v>187</v>
       </c>
       <c r="I83" s="3">
-        <v>8.754</v>
+        <v>8.839</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7020,7 +7020,7 @@
         <v>187</v>
       </c>
       <c r="I84" s="3">
-        <v>0.46</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7049,7 +7049,7 @@
         <v>189</v>
       </c>
       <c r="I85" s="3">
-        <v>0.501</v>
+        <v>0.505</v>
       </c>
       <c r="J85" t="s">
         <v>190</v>
@@ -7081,7 +7081,7 @@
         <v>191</v>
       </c>
       <c r="I86" s="3">
-        <v>1.32</v>
+        <v>1.333</v>
       </c>
       <c r="J86" t="s">
         <v>192</v>
@@ -7113,7 +7113,7 @@
         <v>194</v>
       </c>
       <c r="I87" s="3">
-        <v>243.631</v>
+        <v>245.996</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7142,7 +7142,7 @@
         <v>196</v>
       </c>
       <c r="I88" s="3">
-        <v>1.305</v>
+        <v>1.318</v>
       </c>
       <c r="J88" t="s">
         <v>197</v>
@@ -7174,7 +7174,7 @@
         <v>199</v>
       </c>
       <c r="I89" s="3">
-        <v>1.867</v>
+        <v>1.885</v>
       </c>
       <c r="J89" t="s">
         <v>200</v>
@@ -7206,7 +7206,7 @@
         <v>202</v>
       </c>
       <c r="I90" s="3">
-        <v>4.476</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7235,7 +7235,7 @@
         <v>204</v>
       </c>
       <c r="I91" s="3">
-        <v>0.531</v>
+        <v>0.536</v>
       </c>
       <c r="J91" t="s">
         <v>205</v>
@@ -7267,7 +7267,7 @@
         <v>207</v>
       </c>
       <c r="I92" s="3">
-        <v>0.788</v>
+        <v>0.795</v>
       </c>
       <c r="J92" t="s">
         <v>208</v>
@@ -7299,7 +7299,7 @@
         <v>210</v>
       </c>
       <c r="I93" s="3">
-        <v>9.643000000000001</v>
+        <v>9.736000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -7357,7 +7357,7 @@
         <v>214</v>
       </c>
       <c r="I95" s="3">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7386,7 +7386,7 @@
         <v>216</v>
       </c>
       <c r="I96" s="3">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="J96" t="s">
         <v>217</v>
@@ -7418,7 +7418,7 @@
         <v>219</v>
       </c>
       <c r="I97" s="3">
-        <v>1.467</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -7447,7 +7447,7 @@
         <v>221</v>
       </c>
       <c r="I98" s="3">
-        <v>3.528</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -7476,7 +7476,7 @@
         <v>223</v>
       </c>
       <c r="I99" s="3">
-        <v>2.472</v>
+        <v>2.496</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -7505,7 +7505,7 @@
         <v>225</v>
       </c>
       <c r="I100" s="3">
-        <v>0.181</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -7534,7 +7534,7 @@
         <v>227</v>
       </c>
       <c r="I101" s="3">
-        <v>1.991</v>
+        <v>2.011</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -7563,7 +7563,7 @@
         <v>229</v>
       </c>
       <c r="I102" s="3">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -7592,7 +7592,7 @@
         <v>231</v>
       </c>
       <c r="I103" s="3">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7621,7 +7621,7 @@
         <v>233</v>
       </c>
       <c r="I104" s="3">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7650,7 +7650,7 @@
         <v>235</v>
       </c>
       <c r="I105" s="3">
-        <v>5.145</v>
+        <v>5.194</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7679,7 +7679,7 @@
         <v>237</v>
       </c>
       <c r="I106" s="3">
-        <v>0.155</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7708,7 +7708,7 @@
         <v>239</v>
       </c>
       <c r="I107" s="3">
-        <v>10.083</v>
+        <v>10.181</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7737,7 +7737,7 @@
         <v>241</v>
       </c>
       <c r="I108" s="3">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
       <c r="J108" t="s">
         <v>242</v>
@@ -7769,7 +7769,7 @@
         <v>244</v>
       </c>
       <c r="I109" s="3">
-        <v>4.194</v>
+        <v>4.234</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7830,7 +7830,7 @@
         <v>249</v>
       </c>
       <c r="I111" s="3">
-        <v>4.569</v>
+        <v>4.614</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7859,7 +7859,7 @@
         <v>251</v>
       </c>
       <c r="I112" s="3">
-        <v>0.6840000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7888,7 +7888,7 @@
         <v>253</v>
       </c>
       <c r="I113" s="3">
-        <v>2.034</v>
+        <v>2.053</v>
       </c>
       <c r="J113" t="s">
         <v>254</v>
@@ -7920,7 +7920,7 @@
         <v>256</v>
       </c>
       <c r="I114" s="3">
-        <v>19.613</v>
+        <v>19.803</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7978,7 +7978,7 @@
         <v>260</v>
       </c>
       <c r="I116" s="3">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -8007,7 +8007,7 @@
         <v>262</v>
       </c>
       <c r="I117" s="3">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -8036,7 +8036,7 @@
         <v>262</v>
       </c>
       <c r="I118" s="3">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -8065,7 +8065,7 @@
         <v>264</v>
       </c>
       <c r="I119" s="3">
-        <v>2.387</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -8094,7 +8094,7 @@
         <v>266</v>
       </c>
       <c r="I120" s="3">
-        <v>0.8139999999999999</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -8123,7 +8123,7 @@
         <v>268</v>
       </c>
       <c r="I121" s="3">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -8152,7 +8152,7 @@
         <v>270</v>
       </c>
       <c r="I122" s="3">
-        <v>6.709</v>
+        <v>6.774</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -8181,7 +8181,7 @@
         <v>270</v>
       </c>
       <c r="I123" s="3">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -8210,7 +8210,7 @@
         <v>272</v>
       </c>
       <c r="I124" s="3">
-        <v>0.457</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -8239,7 +8239,7 @@
         <v>274</v>
       </c>
       <c r="I125" s="3">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -8268,7 +8268,7 @@
         <v>274</v>
       </c>
       <c r="I126" s="3">
-        <v>0.215</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -8326,7 +8326,7 @@
         <v>278</v>
       </c>
       <c r="I128" s="3">
-        <v>0.276</v>
+        <v>0.279</v>
       </c>
       <c r="J128" t="s">
         <v>279</v>
@@ -8387,7 +8387,7 @@
         <v>281</v>
       </c>
       <c r="I130" s="3">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -8416,7 +8416,7 @@
         <v>281</v>
       </c>
       <c r="I131" s="3">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -8445,7 +8445,7 @@
         <v>283</v>
       </c>
       <c r="I132" s="3">
-        <v>3.62</v>
+        <v>3.655</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -8474,7 +8474,7 @@
         <v>285</v>
       </c>
       <c r="I133" s="3">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8503,7 +8503,7 @@
         <v>285</v>
       </c>
       <c r="I134" s="3">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -8561,7 +8561,7 @@
         <v>289</v>
       </c>
       <c r="I136" s="3">
-        <v>1.045</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8590,7 +8590,7 @@
         <v>291</v>
       </c>
       <c r="I137" s="3">
-        <v>0.541</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8648,7 +8648,7 @@
         <v>295</v>
       </c>
       <c r="I139" s="3">
-        <v>0.188</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -8706,7 +8706,7 @@
         <v>297</v>
       </c>
       <c r="I141" s="3">
-        <v>2.027</v>
+        <v>2.047</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -8735,7 +8735,7 @@
         <v>299</v>
       </c>
       <c r="I142" s="3">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -8764,7 +8764,7 @@
         <v>301</v>
       </c>
       <c r="I143" s="3">
-        <v>0.552</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J143" t="s">
         <v>302</v>
@@ -8796,7 +8796,7 @@
         <v>304</v>
       </c>
       <c r="I144" s="3">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="J144" t="s">
         <v>305</v>
@@ -8828,7 +8828,7 @@
         <v>304</v>
       </c>
       <c r="I145" s="3">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -8857,7 +8857,7 @@
         <v>307</v>
       </c>
       <c r="I146" s="3">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -8886,7 +8886,7 @@
         <v>309</v>
       </c>
       <c r="I147" s="3">
-        <v>0.5639999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8915,7 +8915,7 @@
         <v>309</v>
       </c>
       <c r="I148" s="3">
-        <v>0.431</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -8944,7 +8944,7 @@
         <v>311</v>
       </c>
       <c r="I149" s="3">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8973,7 +8973,7 @@
         <v>313</v>
       </c>
       <c r="I150" s="3">
-        <v>1.904</v>
+        <v>1.923</v>
       </c>
       <c r="J150" t="s">
         <v>314</v>
@@ -9005,7 +9005,7 @@
         <v>313</v>
       </c>
       <c r="I151" s="3">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="J151" t="s">
         <v>315</v>
@@ -9037,7 +9037,7 @@
         <v>317</v>
       </c>
       <c r="I152" s="3">
-        <v>1.075</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -9066,7 +9066,7 @@
         <v>319</v>
       </c>
       <c r="I153" s="3">
-        <v>3.803</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -9095,7 +9095,7 @@
         <v>321</v>
       </c>
       <c r="I154" s="3">
-        <v>0.204</v>
+        <v>0.206</v>
       </c>
       <c r="J154" t="s">
         <v>322</v>
@@ -9127,7 +9127,7 @@
         <v>324</v>
       </c>
       <c r="I155" s="3">
-        <v>1.16</v>
+        <v>1.171</v>
       </c>
       <c r="J155" t="s">
         <v>325</v>
@@ -9159,7 +9159,7 @@
         <v>327</v>
       </c>
       <c r="I156" s="3">
-        <v>0.473</v>
+        <v>0.478</v>
       </c>
       <c r="J156" t="s">
         <v>328</v>
@@ -9191,7 +9191,7 @@
         <v>330</v>
       </c>
       <c r="I157" s="3">
-        <v>0.289</v>
+        <v>0.291</v>
       </c>
       <c r="J157" t="s">
         <v>331</v>
@@ -9223,7 +9223,7 @@
         <v>333</v>
       </c>
       <c r="I158" s="3">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="J158" t="s">
         <v>334</v>
@@ -9255,7 +9255,7 @@
         <v>336</v>
       </c>
       <c r="I159" s="3">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="J159" t="s">
         <v>337</v>
@@ -9287,7 +9287,7 @@
         <v>339</v>
       </c>
       <c r="I160" s="3">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -9316,7 +9316,7 @@
         <v>341</v>
       </c>
       <c r="I161" s="3">
-        <v>0.187</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -9345,7 +9345,7 @@
         <v>343</v>
       </c>
       <c r="I162" s="3">
-        <v>4.39</v>
+        <v>4.433</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -9374,7 +9374,7 @@
         <v>345</v>
       </c>
       <c r="I163" s="3">
-        <v>0.281</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -9403,7 +9403,7 @@
         <v>347</v>
       </c>
       <c r="I164" s="3">
-        <v>0.399</v>
+        <v>0.403</v>
       </c>
       <c r="J164" t="s">
         <v>348</v>
@@ -9435,7 +9435,7 @@
         <v>350</v>
       </c>
       <c r="I165" s="3">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="J165" t="s">
         <v>351</v>
@@ -9467,7 +9467,7 @@
         <v>353</v>
       </c>
       <c r="I166" s="3">
-        <v>0.194</v>
+        <v>0.196</v>
       </c>
       <c r="J166" t="s">
         <v>354</v>
@@ -9499,7 +9499,7 @@
         <v>353</v>
       </c>
       <c r="I167" s="3">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="J167" t="s">
         <v>355</v>
@@ -9531,7 +9531,7 @@
         <v>357</v>
       </c>
       <c r="I168" s="3">
-        <v>3.032</v>
+        <v>3.061</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -9560,7 +9560,7 @@
         <v>357</v>
       </c>
       <c r="I169" s="3">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -9589,7 +9589,7 @@
         <v>359</v>
       </c>
       <c r="I170" s="3">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
       <c r="J170" t="s">
         <v>360</v>
@@ -9621,7 +9621,7 @@
         <v>362</v>
       </c>
       <c r="I171" s="3">
-        <v>0.524</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -9650,7 +9650,7 @@
         <v>364</v>
       </c>
       <c r="I172" s="3">
-        <v>6.932</v>
+        <v>6.999</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -9679,7 +9679,7 @@
         <v>366</v>
       </c>
       <c r="I173" s="3">
-        <v>7.714</v>
+        <v>7.788</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -9708,7 +9708,7 @@
         <v>368</v>
       </c>
       <c r="I174" s="3">
-        <v>0.177</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -9737,7 +9737,7 @@
         <v>370</v>
       </c>
       <c r="I175" s="3">
-        <v>4.254</v>
+        <v>4.296</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -9766,7 +9766,7 @@
         <v>370</v>
       </c>
       <c r="I176" s="3">
-        <v>6.436</v>
+        <v>6.498</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -9795,7 +9795,7 @@
         <v>372</v>
       </c>
       <c r="I177" s="3">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -9824,7 +9824,7 @@
         <v>374</v>
       </c>
       <c r="I178" s="3">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -33611,7 +33611,7 @@
         <v>384</v>
       </c>
       <c r="I3" s="3">
-        <v>440.8</v>
+        <v>445.08</v>
       </c>
       <c r="J3" t="s">
         <v>385</v>
@@ -33643,7 +33643,7 @@
         <v>384</v>
       </c>
       <c r="I4" s="3">
-        <v>1348.445</v>
+        <v>1361.536</v>
       </c>
       <c r="J4" t="s">
         <v>382</v>
@@ -33675,7 +33675,7 @@
         <v>387</v>
       </c>
       <c r="I5" s="3">
-        <v>18264.988</v>
+        <v>18442.318</v>
       </c>
       <c r="J5" t="s">
         <v>382</v>
@@ -33707,7 +33707,7 @@
         <v>389</v>
       </c>
       <c r="I6" s="3">
-        <v>98.861</v>
+        <v>99.821</v>
       </c>
       <c r="J6" t="s">
         <v>382</v>
@@ -33739,7 +33739,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="3">
-        <v>19850.405</v>
+        <v>20043.127</v>
       </c>
       <c r="J7" t="s">
         <v>382</v>
@@ -33771,7 +33771,7 @@
         <v>391</v>
       </c>
       <c r="I8" s="3">
-        <v>2682.158</v>
+        <v>2708.198</v>
       </c>
       <c r="J8" t="s">
         <v>382</v>
@@ -33803,7 +33803,7 @@
         <v>393</v>
       </c>
       <c r="I9" s="3">
-        <v>256.088</v>
+        <v>258.574</v>
       </c>
       <c r="J9" t="s">
         <v>385</v>
@@ -33835,7 +33835,7 @@
         <v>395</v>
       </c>
       <c r="I10" s="3">
-        <v>47.76</v>
+        <v>48.224</v>
       </c>
       <c r="J10" t="s">
         <v>385</v>
@@ -33867,7 +33867,7 @@
         <v>395</v>
       </c>
       <c r="I11" s="3">
-        <v>32.542</v>
+        <v>32.858</v>
       </c>
       <c r="J11" t="s">
         <v>385</v>
@@ -33899,7 +33899,7 @@
         <v>397</v>
       </c>
       <c r="I12" s="3">
-        <v>51.831</v>
+        <v>52.335</v>
       </c>
       <c r="J12" t="s">
         <v>382</v>
@@ -33931,7 +33931,7 @@
         <v>399</v>
       </c>
       <c r="I13" s="3">
-        <v>365.914</v>
+        <v>369.466</v>
       </c>
       <c r="J13" t="s">
         <v>385</v>
@@ -33963,7 +33963,7 @@
         <v>401</v>
       </c>
       <c r="I14" s="3">
-        <v>365.95</v>
+        <v>369.503</v>
       </c>
       <c r="J14" t="s">
         <v>382</v>
@@ -33995,7 +33995,7 @@
         <v>403</v>
       </c>
       <c r="I15" s="3">
-        <v>2527.359</v>
+        <v>2551.897</v>
       </c>
       <c r="J15" t="s">
         <v>382</v>
@@ -34027,7 +34027,7 @@
         <v>405</v>
       </c>
       <c r="I16" s="3">
-        <v>47.677</v>
+        <v>48.14</v>
       </c>
       <c r="J16" t="s">
         <v>382</v>
@@ -34059,7 +34059,7 @@
         <v>407</v>
       </c>
       <c r="I17" s="3">
-        <v>289.741</v>
+        <v>292.554</v>
       </c>
       <c r="J17" t="s">
         <v>382</v>
@@ -34091,7 +34091,7 @@
         <v>407</v>
       </c>
       <c r="I18" s="3">
-        <v>285.092</v>
+        <v>287.86</v>
       </c>
       <c r="J18" t="s">
         <v>382</v>
@@ -34123,7 +34123,7 @@
         <v>407</v>
       </c>
       <c r="I19" s="3">
-        <v>40.592</v>
+        <v>40.986</v>
       </c>
       <c r="J19" t="s">
         <v>382</v>
@@ -34155,7 +34155,7 @@
         <v>409</v>
       </c>
       <c r="I20" s="3">
-        <v>1113.64</v>
+        <v>1124.452</v>
       </c>
       <c r="J20" t="s">
         <v>382</v>
@@ -34187,7 +34187,7 @@
         <v>409</v>
       </c>
       <c r="I21" s="3">
-        <v>2039.526</v>
+        <v>2059.327</v>
       </c>
       <c r="J21" t="s">
         <v>382</v>
@@ -34219,7 +34219,7 @@
         <v>411</v>
       </c>
       <c r="I22" s="3">
-        <v>39408.128</v>
+        <v>39790.731</v>
       </c>
       <c r="J22" t="s">
         <v>382</v>
@@ -34251,7 +34251,7 @@
         <v>413</v>
       </c>
       <c r="I23" s="3">
-        <v>6759.39</v>
+        <v>6825.015</v>
       </c>
       <c r="J23" t="s">
         <v>382</v>
@@ -34283,7 +34283,7 @@
         <v>415</v>
       </c>
       <c r="I24" s="3">
-        <v>22799.205</v>
+        <v>23020.557</v>
       </c>
       <c r="J24" t="s">
         <v>382</v>
@@ -34315,7 +34315,7 @@
         <v>417</v>
       </c>
       <c r="I25" s="3">
-        <v>126.292</v>
+        <v>127.518</v>
       </c>
       <c r="J25" t="s">
         <v>382</v>
@@ -34347,7 +34347,7 @@
         <v>419</v>
       </c>
       <c r="I26" s="3">
-        <v>110.254</v>
+        <v>111.324</v>
       </c>
       <c r="J26" t="s">
         <v>382</v>
@@ -34379,7 +34379,7 @@
         <v>421</v>
       </c>
       <c r="I27" s="3">
-        <v>76.452</v>
+        <v>77.19499999999999</v>
       </c>
       <c r="J27" t="s">
         <v>382</v>
@@ -34411,7 +34411,7 @@
         <v>423</v>
       </c>
       <c r="I28" s="3">
-        <v>1.163</v>
+        <v>1.175</v>
       </c>
       <c r="J28" t="s">
         <v>424</v>
@@ -34443,7 +34443,7 @@
         <v>423</v>
       </c>
       <c r="I29" s="3">
-        <v>1.089</v>
+        <v>1.099</v>
       </c>
       <c r="J29" t="s">
         <v>425</v>
@@ -34475,7 +34475,7 @@
         <v>427</v>
       </c>
       <c r="I30" s="3">
-        <v>45.633</v>
+        <v>46.076</v>
       </c>
       <c r="J30" t="s">
         <v>385</v>
@@ -34507,7 +34507,7 @@
         <v>429</v>
       </c>
       <c r="I31" s="3">
-        <v>759.167</v>
+        <v>766.537</v>
       </c>
       <c r="J31" t="s">
         <v>382</v>
@@ -34539,7 +34539,7 @@
         <v>429</v>
       </c>
       <c r="I32" s="3">
-        <v>488.769</v>
+        <v>493.515</v>
       </c>
       <c r="J32" t="s">
         <v>382</v>
@@ -34571,7 +34571,7 @@
         <v>431</v>
       </c>
       <c r="I33" s="3">
-        <v>512.395</v>
+        <v>517.369</v>
       </c>
       <c r="J33" t="s">
         <v>382</v>
@@ -34603,7 +34603,7 @@
         <v>431</v>
       </c>
       <c r="I34" s="3">
-        <v>672.284</v>
+        <v>678.811</v>
       </c>
       <c r="J34" t="s">
         <v>382</v>
@@ -34635,7 +34635,7 @@
         <v>433</v>
       </c>
       <c r="I35" s="3">
-        <v>81.908</v>
+        <v>82.703</v>
       </c>
       <c r="J35" t="s">
         <v>382</v>
@@ -34667,7 +34667,7 @@
         <v>435</v>
       </c>
       <c r="I36" s="3">
-        <v>88.703</v>
+        <v>89.565</v>
       </c>
       <c r="J36" t="s">
         <v>382</v>
@@ -34699,7 +34699,7 @@
         <v>435</v>
       </c>
       <c r="I37" s="3">
-        <v>240.574</v>
+        <v>242.91</v>
       </c>
       <c r="J37" t="s">
         <v>382</v>
@@ -34731,7 +34731,7 @@
         <v>437</v>
       </c>
       <c r="I38" s="3">
-        <v>2.309</v>
+        <v>2.331</v>
       </c>
       <c r="J38" t="s">
         <v>438</v>
@@ -34763,7 +34763,7 @@
         <v>48</v>
       </c>
       <c r="I39" s="3">
-        <v>334.91</v>
+        <v>338.161</v>
       </c>
       <c r="J39" t="s">
         <v>382</v>
@@ -34795,7 +34795,7 @@
         <v>440</v>
       </c>
       <c r="I40" s="3">
-        <v>559.72</v>
+        <v>565.154</v>
       </c>
       <c r="J40" t="s">
         <v>382</v>
@@ -34827,7 +34827,7 @@
         <v>442</v>
       </c>
       <c r="I41" s="3">
-        <v>797.588</v>
+        <v>805.332</v>
       </c>
       <c r="J41" t="s">
         <v>382</v>
@@ -34859,7 +34859,7 @@
         <v>51</v>
       </c>
       <c r="I42" s="3">
-        <v>81.65300000000001</v>
+        <v>82.446</v>
       </c>
       <c r="J42" t="s">
         <v>382</v>
@@ -34891,7 +34891,7 @@
         <v>51</v>
       </c>
       <c r="I43" s="3">
-        <v>444.597</v>
+        <v>448.913</v>
       </c>
       <c r="J43" t="s">
         <v>382</v>
@@ -34923,7 +34923,7 @@
         <v>444</v>
       </c>
       <c r="I44" s="3">
-        <v>4.675</v>
+        <v>4.721</v>
       </c>
       <c r="J44" t="s">
         <v>445</v>
@@ -34955,7 +34955,7 @@
         <v>447</v>
       </c>
       <c r="I45" s="3">
-        <v>2.767</v>
+        <v>2.794</v>
       </c>
       <c r="J45" t="s">
         <v>448</v>
@@ -34987,7 +34987,7 @@
         <v>54</v>
       </c>
       <c r="I46" s="3">
-        <v>2204.876</v>
+        <v>2226.283</v>
       </c>
       <c r="J46" t="s">
         <v>382</v>
@@ -35019,7 +35019,7 @@
         <v>450</v>
       </c>
       <c r="I47" s="3">
-        <v>639.992</v>
+        <v>646.206</v>
       </c>
       <c r="J47" t="s">
         <v>382</v>
@@ -35051,7 +35051,7 @@
         <v>452</v>
       </c>
       <c r="I48" s="3">
-        <v>94.322</v>
+        <v>95.23699999999999</v>
       </c>
       <c r="J48" t="s">
         <v>382</v>
@@ -35083,7 +35083,7 @@
         <v>452</v>
       </c>
       <c r="I49" s="3">
-        <v>43.284</v>
+        <v>43.704</v>
       </c>
       <c r="J49" t="s">
         <v>385</v>
@@ -35115,7 +35115,7 @@
         <v>454</v>
       </c>
       <c r="I50" s="3">
-        <v>206.846</v>
+        <v>208.854</v>
       </c>
       <c r="J50" t="s">
         <v>382</v>
@@ -35147,7 +35147,7 @@
         <v>454</v>
       </c>
       <c r="I51" s="3">
-        <v>89.40600000000001</v>
+        <v>90.274</v>
       </c>
       <c r="J51" t="s">
         <v>382</v>
@@ -35179,7 +35179,7 @@
         <v>454</v>
       </c>
       <c r="I52" s="3">
-        <v>98.667</v>
+        <v>99.625</v>
       </c>
       <c r="J52" t="s">
         <v>382</v>
@@ -35211,7 +35211,7 @@
         <v>456</v>
       </c>
       <c r="I53" s="3">
-        <v>132.522</v>
+        <v>133.808</v>
       </c>
       <c r="J53" t="s">
         <v>382</v>
@@ -35243,7 +35243,7 @@
         <v>456</v>
       </c>
       <c r="I54" s="3">
-        <v>3480.092</v>
+        <v>3513.88</v>
       </c>
       <c r="J54" t="s">
         <v>382</v>
@@ -35275,7 +35275,7 @@
         <v>61</v>
       </c>
       <c r="I55" s="3">
-        <v>83.627</v>
+        <v>84.43899999999999</v>
       </c>
       <c r="J55" t="s">
         <v>382</v>
@@ -35307,7 +35307,7 @@
         <v>59</v>
       </c>
       <c r="I56" s="3">
-        <v>592.258</v>
+        <v>598.008</v>
       </c>
       <c r="J56" t="s">
         <v>385</v>
@@ -35339,7 +35339,7 @@
         <v>458</v>
       </c>
       <c r="I57" s="3">
-        <v>252.195</v>
+        <v>254.643</v>
       </c>
       <c r="J57" t="s">
         <v>382</v>
@@ -35371,7 +35371,7 @@
         <v>460</v>
       </c>
       <c r="I58" s="3">
-        <v>106.329</v>
+        <v>107.361</v>
       </c>
       <c r="J58" t="s">
         <v>382</v>
@@ -35403,7 +35403,7 @@
         <v>462</v>
       </c>
       <c r="I59" s="3">
-        <v>92.367</v>
+        <v>93.264</v>
       </c>
       <c r="J59" t="s">
         <v>382</v>
@@ -35435,7 +35435,7 @@
         <v>462</v>
       </c>
       <c r="I60" s="3">
-        <v>81.27</v>
+        <v>82.059</v>
       </c>
       <c r="J60" t="s">
         <v>382</v>
@@ -35467,7 +35467,7 @@
         <v>464</v>
       </c>
       <c r="I61" s="3">
-        <v>110.71</v>
+        <v>111.785</v>
       </c>
       <c r="J61" t="s">
         <v>382</v>
@@ -35499,7 +35499,7 @@
         <v>466</v>
       </c>
       <c r="I62" s="3">
-        <v>125.383</v>
+        <v>126.6</v>
       </c>
       <c r="J62" t="s">
         <v>382</v>
@@ -35531,7 +35531,7 @@
         <v>468</v>
       </c>
       <c r="I63" s="3">
-        <v>23.103</v>
+        <v>23.327</v>
       </c>
       <c r="J63" t="s">
         <v>385</v>
@@ -35563,7 +35563,7 @@
         <v>468</v>
       </c>
       <c r="I64" s="3">
-        <v>242.258</v>
+        <v>244.61</v>
       </c>
       <c r="J64" t="s">
         <v>382</v>
@@ -35595,7 +35595,7 @@
         <v>470</v>
       </c>
       <c r="I65" s="3">
-        <v>19.6</v>
+        <v>19.79</v>
       </c>
       <c r="J65" t="s">
         <v>471</v>
@@ -35627,7 +35627,7 @@
         <v>470</v>
       </c>
       <c r="I66" s="3">
-        <v>18.747</v>
+        <v>18.929</v>
       </c>
       <c r="J66" t="s">
         <v>472</v>
@@ -35659,7 +35659,7 @@
         <v>470</v>
       </c>
       <c r="I67" s="3">
-        <v>107.516</v>
+        <v>108.56</v>
       </c>
       <c r="J67" t="s">
         <v>385</v>
@@ -35691,7 +35691,7 @@
         <v>474</v>
       </c>
       <c r="I68" s="3">
-        <v>151.142</v>
+        <v>152.61</v>
       </c>
       <c r="J68" t="s">
         <v>382</v>
@@ -35723,7 +35723,7 @@
         <v>476</v>
       </c>
       <c r="I69" s="3">
-        <v>3610.888</v>
+        <v>3645.945</v>
       </c>
       <c r="J69" t="s">
         <v>385</v>
@@ -35755,7 +35755,7 @@
         <v>478</v>
       </c>
       <c r="I70" s="3">
-        <v>122.494</v>
+        <v>123.683</v>
       </c>
       <c r="J70" t="s">
         <v>382</v>
@@ -35787,7 +35787,7 @@
         <v>478</v>
       </c>
       <c r="I71" s="3">
-        <v>1384.808</v>
+        <v>1398.253</v>
       </c>
       <c r="J71" t="s">
         <v>385</v>
@@ -35819,7 +35819,7 @@
         <v>480</v>
       </c>
       <c r="I72" s="3">
-        <v>787.298</v>
+        <v>794.942</v>
       </c>
       <c r="J72" t="s">
         <v>382</v>
@@ -35851,7 +35851,7 @@
         <v>482</v>
       </c>
       <c r="I73" s="3">
-        <v>452.903</v>
+        <v>457.3</v>
       </c>
       <c r="J73" t="s">
         <v>382</v>
@@ -35883,7 +35883,7 @@
         <v>482</v>
       </c>
       <c r="I74" s="3">
-        <v>174.617</v>
+        <v>176.313</v>
       </c>
       <c r="J74" t="s">
         <v>385</v>
@@ -35915,7 +35915,7 @@
         <v>484</v>
       </c>
       <c r="I75" s="3">
-        <v>1230.479</v>
+        <v>1242.426</v>
       </c>
       <c r="J75" t="s">
         <v>382</v>
@@ -35947,7 +35947,7 @@
         <v>486</v>
       </c>
       <c r="I76" s="3">
-        <v>318.447</v>
+        <v>321.539</v>
       </c>
       <c r="J76" t="s">
         <v>382</v>
@@ -35979,7 +35979,7 @@
         <v>486</v>
       </c>
       <c r="I77" s="3">
-        <v>1073.41</v>
+        <v>1083.831</v>
       </c>
       <c r="J77" t="s">
         <v>382</v>
@@ -36011,7 +36011,7 @@
         <v>488</v>
       </c>
       <c r="I78" s="3">
-        <v>292.155</v>
+        <v>294.991</v>
       </c>
       <c r="J78" t="s">
         <v>382</v>
@@ -36043,7 +36043,7 @@
         <v>490</v>
       </c>
       <c r="I79" s="3">
-        <v>416.933</v>
+        <v>420.981</v>
       </c>
       <c r="J79" t="s">
         <v>382</v>
@@ -36075,7 +36075,7 @@
         <v>490</v>
       </c>
       <c r="I80" s="3">
-        <v>60.63</v>
+        <v>61.218</v>
       </c>
       <c r="J80" t="s">
         <v>385</v>
@@ -36107,7 +36107,7 @@
         <v>492</v>
       </c>
       <c r="I81" s="3">
-        <v>192.777</v>
+        <v>194.648</v>
       </c>
       <c r="J81" t="s">
         <v>385</v>
@@ -36139,7 +36139,7 @@
         <v>494</v>
       </c>
       <c r="I82" s="3">
-        <v>611.871</v>
+        <v>617.811</v>
       </c>
       <c r="J82" t="s">
         <v>382</v>
@@ -36171,7 +36171,7 @@
         <v>496</v>
       </c>
       <c r="I83" s="3">
-        <v>125.733</v>
+        <v>126.954</v>
       </c>
       <c r="J83" t="s">
         <v>382</v>
@@ -36203,7 +36203,7 @@
         <v>498</v>
       </c>
       <c r="I84" s="3">
-        <v>58.033</v>
+        <v>58.597</v>
       </c>
       <c r="J84" t="s">
         <v>385</v>
@@ -36235,7 +36235,7 @@
         <v>500</v>
       </c>
       <c r="I85" s="3">
-        <v>114.648</v>
+        <v>115.761</v>
       </c>
       <c r="J85" t="s">
         <v>382</v>
@@ -36267,7 +36267,7 @@
         <v>500</v>
       </c>
       <c r="I86" s="3">
-        <v>830.604</v>
+        <v>838.668</v>
       </c>
       <c r="J86" t="s">
         <v>382</v>
@@ -36299,7 +36299,7 @@
         <v>84</v>
       </c>
       <c r="I87" s="3">
-        <v>1573.953</v>
+        <v>1589.234</v>
       </c>
       <c r="J87" t="s">
         <v>382</v>
@@ -36331,7 +36331,7 @@
         <v>502</v>
       </c>
       <c r="I88" s="3">
-        <v>9.257999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="J88" t="s">
         <v>385</v>
@@ -36363,7 +36363,7 @@
         <v>502</v>
       </c>
       <c r="I89" s="3">
-        <v>36.721</v>
+        <v>37.078</v>
       </c>
       <c r="J89" t="s">
         <v>382</v>
@@ -36395,7 +36395,7 @@
         <v>99</v>
       </c>
       <c r="I90" s="3">
-        <v>52.122</v>
+        <v>52.628</v>
       </c>
       <c r="J90" t="s">
         <v>382</v>
@@ -36427,7 +36427,7 @@
         <v>504</v>
       </c>
       <c r="I91" s="3">
-        <v>54.832</v>
+        <v>55.364</v>
       </c>
       <c r="J91" t="s">
         <v>382</v>
@@ -36459,7 +36459,7 @@
         <v>103</v>
       </c>
       <c r="I92" s="3">
-        <v>29.134</v>
+        <v>29.416</v>
       </c>
       <c r="J92" t="s">
         <v>385</v>
@@ -36491,7 +36491,7 @@
         <v>103</v>
       </c>
       <c r="I93" s="3">
-        <v>1166.883</v>
+        <v>1178.211</v>
       </c>
       <c r="J93" t="s">
         <v>382</v>
@@ -36523,7 +36523,7 @@
         <v>105</v>
       </c>
       <c r="I94" s="3">
-        <v>480.755</v>
+        <v>485.423</v>
       </c>
       <c r="J94" t="s">
         <v>382</v>
@@ -36555,7 +36555,7 @@
         <v>506</v>
       </c>
       <c r="I95" s="3">
-        <v>37.024</v>
+        <v>37.383</v>
       </c>
       <c r="J95" t="s">
         <v>382</v>
@@ -36587,7 +36587,7 @@
         <v>109</v>
       </c>
       <c r="I96" s="3">
-        <v>54.539</v>
+        <v>55.069</v>
       </c>
       <c r="J96" t="s">
         <v>382</v>
@@ -36619,7 +36619,7 @@
         <v>109</v>
       </c>
       <c r="I97" s="3">
-        <v>1821.668</v>
+        <v>1839.354</v>
       </c>
       <c r="J97" t="s">
         <v>385</v>
@@ -36651,7 +36651,7 @@
         <v>508</v>
       </c>
       <c r="I98" s="3">
-        <v>11253.321</v>
+        <v>11362.576</v>
       </c>
       <c r="J98" t="s">
         <v>382</v>
@@ -36683,7 +36683,7 @@
         <v>510</v>
       </c>
       <c r="I99" s="3">
-        <v>44.97</v>
+        <v>45.406</v>
       </c>
       <c r="J99" t="s">
         <v>382</v>
@@ -36715,7 +36715,7 @@
         <v>510</v>
       </c>
       <c r="I100" s="3">
-        <v>17.513</v>
+        <v>17.683</v>
       </c>
       <c r="J100" t="s">
         <v>385</v>
@@ -36747,7 +36747,7 @@
         <v>512</v>
       </c>
       <c r="I101" s="3">
-        <v>53.274</v>
+        <v>53.791</v>
       </c>
       <c r="J101" t="s">
         <v>382</v>
@@ -36779,7 +36779,7 @@
         <v>514</v>
       </c>
       <c r="I102" s="3">
-        <v>7091.684</v>
+        <v>7160.536</v>
       </c>
       <c r="J102" t="s">
         <v>382</v>
@@ -36811,7 +36811,7 @@
         <v>516</v>
       </c>
       <c r="I103" s="3">
-        <v>21605.419</v>
+        <v>21815.18</v>
       </c>
       <c r="J103" t="s">
         <v>385</v>
@@ -36843,7 +36843,7 @@
         <v>121</v>
       </c>
       <c r="I104" s="3">
-        <v>130.004</v>
+        <v>131.266</v>
       </c>
       <c r="J104" t="s">
         <v>382</v>
@@ -36875,7 +36875,7 @@
         <v>518</v>
       </c>
       <c r="I105" s="3">
-        <v>99.929</v>
+        <v>100.899</v>
       </c>
       <c r="J105" t="s">
         <v>382</v>
@@ -36907,7 +36907,7 @@
         <v>131</v>
       </c>
       <c r="I106" s="3">
-        <v>470.858</v>
+        <v>475.43</v>
       </c>
       <c r="J106" t="s">
         <v>382</v>
@@ -36939,7 +36939,7 @@
         <v>520</v>
       </c>
       <c r="I107" s="3">
-        <v>626.265</v>
+        <v>632.345</v>
       </c>
       <c r="J107" t="s">
         <v>382</v>
@@ -36971,7 +36971,7 @@
         <v>522</v>
       </c>
       <c r="I108" s="3">
-        <v>283.672</v>
+        <v>286.426</v>
       </c>
       <c r="J108" t="s">
         <v>382</v>
@@ -37003,7 +37003,7 @@
         <v>524</v>
       </c>
       <c r="I109" s="3">
-        <v>836.176</v>
+        <v>844.294</v>
       </c>
       <c r="J109" t="s">
         <v>382</v>
@@ -37035,7 +37035,7 @@
         <v>526</v>
       </c>
       <c r="I110" s="3">
-        <v>66.848</v>
+        <v>67.497</v>
       </c>
       <c r="J110" t="s">
         <v>382</v>
@@ -37067,7 +37067,7 @@
         <v>144</v>
       </c>
       <c r="I111" s="3">
-        <v>51.373</v>
+        <v>51.872</v>
       </c>
       <c r="J111" t="s">
         <v>385</v>
@@ -37099,7 +37099,7 @@
         <v>528</v>
       </c>
       <c r="I112" s="3">
-        <v>501.48</v>
+        <v>506.349</v>
       </c>
       <c r="J112" t="s">
         <v>382</v>
@@ -37131,7 +37131,7 @@
         <v>528</v>
       </c>
       <c r="I113" s="3">
-        <v>875.299</v>
+        <v>883.797</v>
       </c>
       <c r="J113" t="s">
         <v>382</v>
@@ -37163,7 +37163,7 @@
         <v>530</v>
       </c>
       <c r="I114" s="3">
-        <v>376.997</v>
+        <v>380.657</v>
       </c>
       <c r="J114" t="s">
         <v>382</v>
@@ -37195,7 +37195,7 @@
         <v>530</v>
       </c>
       <c r="I115" s="3">
-        <v>1266.52</v>
+        <v>1278.816</v>
       </c>
       <c r="J115" t="s">
         <v>382</v>
@@ -37227,7 +37227,7 @@
         <v>153</v>
       </c>
       <c r="I116" s="3">
-        <v>2635.783</v>
+        <v>2661.373</v>
       </c>
       <c r="J116" t="s">
         <v>382</v>
@@ -37259,7 +37259,7 @@
         <v>532</v>
       </c>
       <c r="I117" s="3">
-        <v>575.1</v>
+        <v>580.683</v>
       </c>
       <c r="J117" t="s">
         <v>382</v>
@@ -37291,7 +37291,7 @@
         <v>532</v>
       </c>
       <c r="I118" s="3">
-        <v>370.775</v>
+        <v>374.374</v>
       </c>
       <c r="J118" t="s">
         <v>382</v>
@@ -37323,7 +37323,7 @@
         <v>534</v>
       </c>
       <c r="I119" s="3">
-        <v>2880.252</v>
+        <v>2908.215</v>
       </c>
       <c r="J119" t="s">
         <v>382</v>
@@ -37355,7 +37355,7 @@
         <v>536</v>
       </c>
       <c r="I120" s="3">
-        <v>148.762</v>
+        <v>150.207</v>
       </c>
       <c r="J120" t="s">
         <v>382</v>
@@ -37387,7 +37387,7 @@
         <v>538</v>
       </c>
       <c r="I121" s="3">
-        <v>2442.767</v>
+        <v>2466.483</v>
       </c>
       <c r="J121" t="s">
         <v>382</v>
@@ -37419,7 +37419,7 @@
         <v>540</v>
       </c>
       <c r="I122" s="3">
-        <v>142.293</v>
+        <v>143.674</v>
       </c>
       <c r="J122" t="s">
         <v>382</v>
@@ -37451,7 +37451,7 @@
         <v>540</v>
       </c>
       <c r="I123" s="3">
-        <v>167.443</v>
+        <v>169.069</v>
       </c>
       <c r="J123" t="s">
         <v>382</v>
@@ -37483,7 +37483,7 @@
         <v>542</v>
       </c>
       <c r="I124" s="3">
-        <v>168.271</v>
+        <v>169.905</v>
       </c>
       <c r="J124" t="s">
         <v>382</v>
@@ -37515,7 +37515,7 @@
         <v>544</v>
       </c>
       <c r="I125" s="3">
-        <v>238.018</v>
+        <v>240.329</v>
       </c>
       <c r="J125" t="s">
         <v>382</v>
@@ -37547,7 +37547,7 @@
         <v>546</v>
       </c>
       <c r="I126" s="3">
-        <v>140.789</v>
+        <v>142.156</v>
       </c>
       <c r="J126" t="s">
         <v>382</v>
@@ -37579,7 +37579,7 @@
         <v>548</v>
       </c>
       <c r="I127" s="3">
-        <v>1717.052</v>
+        <v>1733.723</v>
       </c>
       <c r="J127" t="s">
         <v>382</v>
@@ -37611,7 +37611,7 @@
         <v>548</v>
       </c>
       <c r="I128" s="3">
-        <v>1943.602</v>
+        <v>1962.472</v>
       </c>
       <c r="J128" t="s">
         <v>382</v>
@@ -37643,7 +37643,7 @@
         <v>550</v>
       </c>
       <c r="I129" s="3">
-        <v>111.222</v>
+        <v>112.302</v>
       </c>
       <c r="J129" t="s">
         <v>382</v>
@@ -37675,7 +37675,7 @@
         <v>177</v>
       </c>
       <c r="I130" s="3">
-        <v>115.014</v>
+        <v>116.131</v>
       </c>
       <c r="J130" t="s">
         <v>382</v>
@@ -37707,7 +37707,7 @@
         <v>181</v>
       </c>
       <c r="I131" s="3">
-        <v>6.693</v>
+        <v>6.758</v>
       </c>
       <c r="J131" t="s">
         <v>385</v>
@@ -37739,7 +37739,7 @@
         <v>552</v>
       </c>
       <c r="I132" s="3">
-        <v>974.717</v>
+        <v>984.1799999999999</v>
       </c>
       <c r="J132" t="s">
         <v>382</v>
@@ -37771,7 +37771,7 @@
         <v>552</v>
       </c>
       <c r="I133" s="3">
-        <v>1073.697</v>
+        <v>1084.121</v>
       </c>
       <c r="J133" t="s">
         <v>382</v>
@@ -37803,7 +37803,7 @@
         <v>554</v>
       </c>
       <c r="I134" s="3">
-        <v>122.492</v>
+        <v>123.681</v>
       </c>
       <c r="J134" t="s">
         <v>382</v>
@@ -37835,7 +37835,7 @@
         <v>556</v>
       </c>
       <c r="I135" s="3">
-        <v>352.931</v>
+        <v>356.357</v>
       </c>
       <c r="J135" t="s">
         <v>382</v>
@@ -37867,7 +37867,7 @@
         <v>556</v>
       </c>
       <c r="I136" s="3">
-        <v>943.0309999999999</v>
+        <v>952.186</v>
       </c>
       <c r="J136" t="s">
         <v>382</v>
@@ -37899,7 +37899,7 @@
         <v>558</v>
       </c>
       <c r="I137" s="3">
-        <v>126.205</v>
+        <v>127.431</v>
       </c>
       <c r="J137" t="s">
         <v>382</v>
@@ -37931,7 +37931,7 @@
         <v>558</v>
       </c>
       <c r="I138" s="3">
-        <v>200.674</v>
+        <v>202.623</v>
       </c>
       <c r="J138" t="s">
         <v>385</v>
@@ -37963,7 +37963,7 @@
         <v>560</v>
       </c>
       <c r="I139" s="3">
-        <v>129.684</v>
+        <v>130.943</v>
       </c>
       <c r="J139" t="s">
         <v>382</v>
@@ -37995,7 +37995,7 @@
         <v>562</v>
       </c>
       <c r="I140" s="3">
-        <v>106.843</v>
+        <v>107.881</v>
       </c>
       <c r="J140" t="s">
         <v>382</v>
@@ -38027,7 +38027,7 @@
         <v>564</v>
       </c>
       <c r="I141" s="3">
-        <v>1409.6</v>
+        <v>1423.285</v>
       </c>
       <c r="J141" t="s">
         <v>382</v>
@@ -38059,7 +38059,7 @@
         <v>194</v>
       </c>
       <c r="I142" s="3">
-        <v>153.273</v>
+        <v>154.761</v>
       </c>
       <c r="J142" t="s">
         <v>382</v>
@@ -38091,7 +38091,7 @@
         <v>566</v>
       </c>
       <c r="I143" s="3">
-        <v>379.039</v>
+        <v>382.719</v>
       </c>
       <c r="J143" t="s">
         <v>567</v>
@@ -38123,7 +38123,7 @@
         <v>569</v>
       </c>
       <c r="I144" s="3">
-        <v>130.299</v>
+        <v>131.564</v>
       </c>
       <c r="J144" t="s">
         <v>382</v>
@@ -38155,7 +38155,7 @@
         <v>569</v>
       </c>
       <c r="I145" s="3">
-        <v>0.437</v>
+        <v>0.441</v>
       </c>
       <c r="J145" t="s">
         <v>570</v>
@@ -38187,7 +38187,7 @@
         <v>210</v>
       </c>
       <c r="I146" s="3">
-        <v>268.199</v>
+        <v>270.803</v>
       </c>
       <c r="J146" t="s">
         <v>382</v>
@@ -38219,7 +38219,7 @@
         <v>572</v>
       </c>
       <c r="I147" s="3">
-        <v>119.686</v>
+        <v>120.848</v>
       </c>
       <c r="J147" t="s">
         <v>382</v>
@@ -38251,7 +38251,7 @@
         <v>572</v>
       </c>
       <c r="I148" s="3">
-        <v>169.158</v>
+        <v>170.8</v>
       </c>
       <c r="J148" t="s">
         <v>382</v>
@@ -38283,7 +38283,7 @@
         <v>574</v>
       </c>
       <c r="I149" s="3">
-        <v>979.415</v>
+        <v>988.923</v>
       </c>
       <c r="J149" t="s">
         <v>382</v>
@@ -38315,7 +38315,7 @@
         <v>576</v>
       </c>
       <c r="I150" s="3">
-        <v>2715.549</v>
+        <v>2741.913</v>
       </c>
       <c r="J150" t="s">
         <v>382</v>
@@ -38347,7 +38347,7 @@
         <v>578</v>
       </c>
       <c r="I151" s="3">
-        <v>38.375</v>
+        <v>38.747</v>
       </c>
       <c r="J151" t="s">
         <v>382</v>
@@ -38379,7 +38379,7 @@
         <v>233</v>
       </c>
       <c r="I152" s="3">
-        <v>106.724</v>
+        <v>107.76</v>
       </c>
       <c r="J152" t="s">
         <v>382</v>
@@ -38411,7 +38411,7 @@
         <v>580</v>
       </c>
       <c r="I153" s="3">
-        <v>134596.884</v>
+        <v>135903.65</v>
       </c>
       <c r="J153" t="s">
         <v>385</v>
@@ -38443,7 +38443,7 @@
         <v>582</v>
       </c>
       <c r="I154" s="3">
-        <v>6574.373</v>
+        <v>6638.202</v>
       </c>
       <c r="J154" t="s">
         <v>382</v>
@@ -38475,7 +38475,7 @@
         <v>584</v>
       </c>
       <c r="I155" s="3">
-        <v>42459.65</v>
+        <v>42871.879</v>
       </c>
       <c r="J155" t="s">
         <v>382</v>
@@ -38507,7 +38507,7 @@
         <v>235</v>
       </c>
       <c r="I156" s="3">
-        <v>486.172</v>
+        <v>490.892</v>
       </c>
       <c r="J156" t="s">
         <v>382</v>
@@ -38539,7 +38539,7 @@
         <v>586</v>
       </c>
       <c r="I157" s="3">
-        <v>47.839</v>
+        <v>48.304</v>
       </c>
       <c r="J157" t="s">
         <v>382</v>
@@ -38571,7 +38571,7 @@
         <v>586</v>
       </c>
       <c r="I158" s="3">
-        <v>1051.989</v>
+        <v>1062.202</v>
       </c>
       <c r="J158" t="s">
         <v>382</v>
@@ -38603,7 +38603,7 @@
         <v>588</v>
       </c>
       <c r="I159" s="3">
-        <v>291.599</v>
+        <v>294.43</v>
       </c>
       <c r="J159" t="s">
         <v>382</v>
@@ -38635,7 +38635,7 @@
         <v>590</v>
       </c>
       <c r="I160" s="3">
-        <v>42.42</v>
+        <v>42.832</v>
       </c>
       <c r="J160" t="s">
         <v>382</v>
@@ -38667,7 +38667,7 @@
         <v>590</v>
       </c>
       <c r="I161" s="3">
-        <v>43.12</v>
+        <v>43.539</v>
       </c>
       <c r="J161" t="s">
         <v>382</v>
@@ -38699,7 +38699,7 @@
         <v>592</v>
       </c>
       <c r="I162" s="3">
-        <v>43.085</v>
+        <v>43.504</v>
       </c>
       <c r="J162" t="s">
         <v>382</v>
@@ -38731,7 +38731,7 @@
         <v>594</v>
       </c>
       <c r="I163" s="3">
-        <v>47.242</v>
+        <v>47.701</v>
       </c>
       <c r="J163" t="s">
         <v>382</v>
@@ -38763,7 +38763,7 @@
         <v>594</v>
       </c>
       <c r="I164" s="3">
-        <v>16411.663</v>
+        <v>16570.999</v>
       </c>
       <c r="J164" t="s">
         <v>382</v>
@@ -38795,7 +38795,7 @@
         <v>596</v>
       </c>
       <c r="I165" s="3">
-        <v>50.297</v>
+        <v>50.786</v>
       </c>
       <c r="J165" t="s">
         <v>382</v>
@@ -38827,7 +38827,7 @@
         <v>598</v>
       </c>
       <c r="I166" s="3">
-        <v>49.633</v>
+        <v>50.115</v>
       </c>
       <c r="J166" t="s">
         <v>382</v>
@@ -38859,7 +38859,7 @@
         <v>600</v>
       </c>
       <c r="I167" s="3">
-        <v>25257.082</v>
+        <v>25502.296</v>
       </c>
       <c r="J167" t="s">
         <v>382</v>
@@ -38891,7 +38891,7 @@
         <v>600</v>
       </c>
       <c r="I168" s="3">
-        <v>36.886</v>
+        <v>37.244</v>
       </c>
       <c r="J168" t="s">
         <v>385</v>
@@ -38923,7 +38923,7 @@
         <v>602</v>
       </c>
       <c r="I169" s="3">
-        <v>124.634</v>
+        <v>125.844</v>
       </c>
       <c r="J169" t="s">
         <v>382</v>
@@ -38955,7 +38955,7 @@
         <v>604</v>
       </c>
       <c r="I170" s="3">
-        <v>39.404</v>
+        <v>39.786</v>
       </c>
       <c r="J170" t="s">
         <v>385</v>
@@ -38987,7 +38987,7 @@
         <v>606</v>
       </c>
       <c r="I171" s="3">
-        <v>8983.574000000001</v>
+        <v>9070.793</v>
       </c>
       <c r="J171" t="s">
         <v>382</v>
@@ -39019,7 +39019,7 @@
         <v>606</v>
       </c>
       <c r="I172" s="3">
-        <v>235.578</v>
+        <v>237.865</v>
       </c>
       <c r="J172" t="s">
         <v>382</v>
@@ -39051,7 +39051,7 @@
         <v>608</v>
       </c>
       <c r="I173" s="3">
-        <v>123.515</v>
+        <v>124.715</v>
       </c>
       <c r="J173" t="s">
         <v>382</v>
@@ -39083,7 +39083,7 @@
         <v>610</v>
       </c>
       <c r="I174" s="3">
-        <v>74.208</v>
+        <v>74.928</v>
       </c>
       <c r="J174" t="s">
         <v>385</v>
@@ -39115,7 +39115,7 @@
         <v>612</v>
       </c>
       <c r="I175" s="3">
-        <v>2723.995</v>
+        <v>2750.441</v>
       </c>
       <c r="J175" t="s">
         <v>382</v>
@@ -39147,7 +39147,7 @@
         <v>614</v>
       </c>
       <c r="I176" s="3">
-        <v>53.671</v>
+        <v>54.192</v>
       </c>
       <c r="J176" t="s">
         <v>385</v>
@@ -39179,7 +39179,7 @@
         <v>616</v>
       </c>
       <c r="I177" s="3">
-        <v>1928.804</v>
+        <v>1947.53</v>
       </c>
       <c r="J177" t="s">
         <v>382</v>
@@ -39211,7 +39211,7 @@
         <v>618</v>
       </c>
       <c r="I178" s="3">
-        <v>52.569</v>
+        <v>53.08</v>
       </c>
       <c r="J178" t="s">
         <v>385</v>
@@ -39243,7 +39243,7 @@
         <v>620</v>
       </c>
       <c r="I179" s="3">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="J179" t="s">
         <v>621</v>
@@ -39275,7 +39275,7 @@
         <v>623</v>
       </c>
       <c r="I180" s="3">
-        <v>12.651</v>
+        <v>12.773</v>
       </c>
       <c r="J180" t="s">
         <v>624</v>
@@ -39307,7 +39307,7 @@
         <v>623</v>
       </c>
       <c r="I181" s="3">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="J181" t="s">
         <v>625</v>
@@ -39339,7 +39339,7 @@
         <v>627</v>
       </c>
       <c r="I182" s="3">
-        <v>299.477</v>
+        <v>302.385</v>
       </c>
       <c r="J182" t="s">
         <v>382</v>
@@ -39371,7 +39371,7 @@
         <v>629</v>
       </c>
       <c r="I183" s="3">
-        <v>1.842</v>
+        <v>1.86</v>
       </c>
       <c r="J183" t="s">
         <v>630</v>
@@ -39403,7 +39403,7 @@
         <v>629</v>
       </c>
       <c r="I184" s="3">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="J184" t="s">
         <v>631</v>
@@ -39435,7 +39435,7 @@
         <v>633</v>
       </c>
       <c r="I185" s="3">
-        <v>416.859</v>
+        <v>420.906</v>
       </c>
       <c r="J185" t="s">
         <v>382</v>
@@ -39467,7 +39467,7 @@
         <v>633</v>
       </c>
       <c r="I186" s="3">
-        <v>418.183</v>
+        <v>422.243</v>
       </c>
       <c r="J186" t="s">
         <v>382</v>
@@ -39499,7 +39499,7 @@
         <v>633</v>
       </c>
       <c r="I187" s="3">
-        <v>900.466</v>
+        <v>909.2089999999999</v>
       </c>
       <c r="J187" t="s">
         <v>382</v>
@@ -39531,7 +39531,7 @@
         <v>241</v>
       </c>
       <c r="I188" s="3">
-        <v>1796.288</v>
+        <v>1813.728</v>
       </c>
       <c r="J188" t="s">
         <v>382</v>
@@ -39563,7 +39563,7 @@
         <v>635</v>
       </c>
       <c r="I189" s="3">
-        <v>983.502</v>
+        <v>993.05</v>
       </c>
       <c r="J189" t="s">
         <v>382</v>
@@ -39595,7 +39595,7 @@
         <v>635</v>
       </c>
       <c r="I190" s="3">
-        <v>82.768</v>
+        <v>83.572</v>
       </c>
       <c r="J190" t="s">
         <v>382</v>
@@ -39627,7 +39627,7 @@
         <v>635</v>
       </c>
       <c r="I191" s="3">
-        <v>802.2569999999999</v>
+        <v>810.046</v>
       </c>
       <c r="J191" t="s">
         <v>382</v>
@@ -39659,7 +39659,7 @@
         <v>637</v>
       </c>
       <c r="I192" s="3">
-        <v>94.754</v>
+        <v>95.67400000000001</v>
       </c>
       <c r="J192" t="s">
         <v>382</v>
@@ -39691,7 +39691,7 @@
         <v>639</v>
       </c>
       <c r="I193" s="3">
-        <v>0.762</v>
+        <v>0.77</v>
       </c>
       <c r="J193" t="s">
         <v>640</v>
@@ -39723,7 +39723,7 @@
         <v>642</v>
       </c>
       <c r="I194" s="3">
-        <v>0.721</v>
+        <v>0.728</v>
       </c>
       <c r="J194" t="s">
         <v>643</v>
@@ -39755,7 +39755,7 @@
         <v>645</v>
       </c>
       <c r="I195" s="3">
-        <v>217.234</v>
+        <v>219.343</v>
       </c>
       <c r="J195" t="s">
         <v>385</v>
@@ -39787,7 +39787,7 @@
         <v>645</v>
       </c>
       <c r="I196" s="3">
-        <v>77.879</v>
+        <v>78.63500000000001</v>
       </c>
       <c r="J196" t="s">
         <v>382</v>
@@ -39819,7 +39819,7 @@
         <v>647</v>
       </c>
       <c r="I197" s="3">
-        <v>910.854</v>
+        <v>919.697</v>
       </c>
       <c r="J197" t="s">
         <v>382</v>
@@ -39851,7 +39851,7 @@
         <v>649</v>
       </c>
       <c r="I198" s="3">
-        <v>609.557</v>
+        <v>615.475</v>
       </c>
       <c r="J198" t="s">
         <v>385</v>
@@ -39883,7 +39883,7 @@
         <v>651</v>
       </c>
       <c r="I199" s="3">
-        <v>4362.518</v>
+        <v>4404.873</v>
       </c>
       <c r="J199" t="s">
         <v>382</v>
@@ -39915,7 +39915,7 @@
         <v>653</v>
       </c>
       <c r="I200" s="3">
-        <v>91.453</v>
+        <v>92.34099999999999</v>
       </c>
       <c r="J200" t="s">
         <v>382</v>
@@ -39947,7 +39947,7 @@
         <v>655</v>
       </c>
       <c r="I201" s="3">
-        <v>306.303</v>
+        <v>309.277</v>
       </c>
       <c r="J201" t="s">
         <v>382</v>
@@ -39979,7 +39979,7 @@
         <v>655</v>
       </c>
       <c r="I202" s="3">
-        <v>1844.033</v>
+        <v>1861.937</v>
       </c>
       <c r="J202" t="s">
         <v>382</v>
@@ -40011,7 +40011,7 @@
         <v>657</v>
       </c>
       <c r="I203" s="3">
-        <v>344.045</v>
+        <v>347.385</v>
       </c>
       <c r="J203" t="s">
         <v>382</v>
@@ -40043,7 +40043,7 @@
         <v>659</v>
       </c>
       <c r="I204" s="3">
-        <v>4464.258</v>
+        <v>4507.6</v>
       </c>
       <c r="J204" t="s">
         <v>382</v>
@@ -40075,7 +40075,7 @@
         <v>661</v>
       </c>
       <c r="I205" s="3">
-        <v>65.774</v>
+        <v>66.41200000000001</v>
       </c>
       <c r="J205" t="s">
         <v>385</v>
@@ -40107,7 +40107,7 @@
         <v>661</v>
       </c>
       <c r="I206" s="3">
-        <v>1895.42</v>
+        <v>1913.822</v>
       </c>
       <c r="J206" t="s">
         <v>382</v>
@@ -40139,7 +40139,7 @@
         <v>663</v>
       </c>
       <c r="I207" s="3">
-        <v>107.428</v>
+        <v>108.471</v>
       </c>
       <c r="J207" t="s">
         <v>382</v>
@@ -40171,7 +40171,7 @@
         <v>665</v>
       </c>
       <c r="I208" s="3">
-        <v>2342.359</v>
+        <v>2365.101</v>
       </c>
       <c r="J208" t="s">
         <v>382</v>
@@ -40203,7 +40203,7 @@
         <v>667</v>
       </c>
       <c r="I209" s="3">
-        <v>5.679</v>
+        <v>5.734</v>
       </c>
       <c r="J209" t="s">
         <v>385</v>
@@ -40235,7 +40235,7 @@
         <v>667</v>
       </c>
       <c r="I210" s="3">
-        <v>204.897</v>
+        <v>206.886</v>
       </c>
       <c r="J210" t="s">
         <v>382</v>
@@ -40267,7 +40267,7 @@
         <v>669</v>
       </c>
       <c r="I211" s="3">
-        <v>71.57899999999999</v>
+        <v>72.274</v>
       </c>
       <c r="J211" t="s">
         <v>385</v>
@@ -40299,7 +40299,7 @@
         <v>669</v>
       </c>
       <c r="I212" s="3">
-        <v>119.285</v>
+        <v>120.444</v>
       </c>
       <c r="J212" t="s">
         <v>382</v>
@@ -40331,7 +40331,7 @@
         <v>671</v>
       </c>
       <c r="I213" s="3">
-        <v>116.659</v>
+        <v>117.792</v>
       </c>
       <c r="J213" t="s">
         <v>382</v>
@@ -40363,7 +40363,7 @@
         <v>673</v>
       </c>
       <c r="I214" s="3">
-        <v>1.139</v>
+        <v>1.15</v>
       </c>
       <c r="J214" t="s">
         <v>674</v>
@@ -40395,7 +40395,7 @@
         <v>673</v>
       </c>
       <c r="I215" s="3">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="J215" t="s">
         <v>675</v>
@@ -40427,7 +40427,7 @@
         <v>677</v>
       </c>
       <c r="I216" s="3">
-        <v>807.139</v>
+        <v>814.975</v>
       </c>
       <c r="J216" t="s">
         <v>382</v>
@@ -40459,7 +40459,7 @@
         <v>679</v>
       </c>
       <c r="I217" s="3">
-        <v>4.16</v>
+        <v>4.201</v>
       </c>
       <c r="J217" t="s">
         <v>680</v>
@@ -40491,7 +40491,7 @@
         <v>679</v>
       </c>
       <c r="I218" s="3">
-        <v>942.784</v>
+        <v>951.937</v>
       </c>
       <c r="J218" t="s">
         <v>382</v>
@@ -40523,7 +40523,7 @@
         <v>682</v>
       </c>
       <c r="I219" s="3">
-        <v>203.426</v>
+        <v>205.401</v>
       </c>
       <c r="J219" t="s">
         <v>382</v>
@@ -40555,7 +40555,7 @@
         <v>682</v>
       </c>
       <c r="I220" s="3">
-        <v>230.267</v>
+        <v>232.502</v>
       </c>
       <c r="J220" t="s">
         <v>382</v>
@@ -40587,7 +40587,7 @@
         <v>684</v>
       </c>
       <c r="I221" s="3">
-        <v>140.587</v>
+        <v>141.952</v>
       </c>
       <c r="J221" t="s">
         <v>382</v>
@@ -40619,7 +40619,7 @@
         <v>686</v>
       </c>
       <c r="I222" s="3">
-        <v>483.211</v>
+        <v>487.902</v>
       </c>
       <c r="J222" t="s">
         <v>382</v>
@@ -40651,7 +40651,7 @@
         <v>688</v>
       </c>
       <c r="I223" s="3">
-        <v>121.021</v>
+        <v>122.196</v>
       </c>
       <c r="J223" t="s">
         <v>382</v>
@@ -40683,7 +40683,7 @@
         <v>690</v>
       </c>
       <c r="I224" s="3">
-        <v>135.074</v>
+        <v>136.386</v>
       </c>
       <c r="J224" t="s">
         <v>382</v>
@@ -40715,7 +40715,7 @@
         <v>692</v>
       </c>
       <c r="I225" s="3">
-        <v>144.686</v>
+        <v>146.091</v>
       </c>
       <c r="J225" t="s">
         <v>382</v>
@@ -40747,7 +40747,7 @@
         <v>692</v>
       </c>
       <c r="I226" s="3">
-        <v>1101.218</v>
+        <v>1111.909</v>
       </c>
       <c r="J226" t="s">
         <v>382</v>
@@ -40779,7 +40779,7 @@
         <v>694</v>
       </c>
       <c r="I227" s="3">
-        <v>139.75</v>
+        <v>141.107</v>
       </c>
       <c r="J227" t="s">
         <v>385</v>
@@ -40811,7 +40811,7 @@
         <v>694</v>
       </c>
       <c r="I228" s="3">
-        <v>1117.775</v>
+        <v>1128.627</v>
       </c>
       <c r="J228" t="s">
         <v>382</v>
@@ -40843,7 +40843,7 @@
         <v>696</v>
       </c>
       <c r="I229" s="3">
-        <v>116.554</v>
+        <v>117.686</v>
       </c>
       <c r="J229" t="s">
         <v>382</v>
@@ -40875,7 +40875,7 @@
         <v>256</v>
       </c>
       <c r="I230" s="3">
-        <v>123.958</v>
+        <v>125.162</v>
       </c>
       <c r="J230" t="s">
         <v>382</v>
@@ -40907,7 +40907,7 @@
         <v>698</v>
       </c>
       <c r="I231" s="3">
-        <v>139124.848</v>
+        <v>140475.575</v>
       </c>
       <c r="J231" t="s">
         <v>382</v>
@@ -40939,7 +40939,7 @@
         <v>700</v>
       </c>
       <c r="I232" s="3">
-        <v>470.106</v>
+        <v>474.67</v>
       </c>
       <c r="J232" t="s">
         <v>382</v>
@@ -40971,7 +40971,7 @@
         <v>702</v>
       </c>
       <c r="I233" s="3">
-        <v>34.007</v>
+        <v>34.337</v>
       </c>
       <c r="J233" t="s">
         <v>385</v>
@@ -41003,7 +41003,7 @@
         <v>704</v>
       </c>
       <c r="I234" s="3">
-        <v>106.509</v>
+        <v>107.543</v>
       </c>
       <c r="J234" t="s">
         <v>382</v>
@@ -41035,7 +41035,7 @@
         <v>706</v>
       </c>
       <c r="I235" s="3">
-        <v>5346.099</v>
+        <v>5398.002</v>
       </c>
       <c r="J235" t="s">
         <v>382</v>
@@ -41067,7 +41067,7 @@
         <v>283</v>
       </c>
       <c r="I236" s="3">
-        <v>834.814</v>
+        <v>842.919</v>
       </c>
       <c r="J236" t="s">
         <v>382</v>
@@ -41099,7 +41099,7 @@
         <v>708</v>
       </c>
       <c r="I237" s="3">
-        <v>110277.92</v>
+        <v>111348.579</v>
       </c>
       <c r="J237" t="s">
         <v>385</v>
@@ -41131,7 +41131,7 @@
         <v>708</v>
       </c>
       <c r="I238" s="3">
-        <v>192.415</v>
+        <v>194.283</v>
       </c>
       <c r="J238" t="s">
         <v>382</v>
@@ -41163,7 +41163,7 @@
         <v>710</v>
       </c>
       <c r="I239" s="3">
-        <v>41.964</v>
+        <v>42.372</v>
       </c>
       <c r="J239" t="s">
         <v>382</v>
@@ -41195,7 +41195,7 @@
         <v>712</v>
       </c>
       <c r="I240" s="3">
-        <v>937.022</v>
+        <v>946.12</v>
       </c>
       <c r="J240" t="s">
         <v>385</v>
@@ -41227,7 +41227,7 @@
         <v>714</v>
       </c>
       <c r="I241" s="3">
-        <v>82.09</v>
+        <v>82.887</v>
       </c>
       <c r="J241" t="s">
         <v>385</v>
@@ -41259,7 +41259,7 @@
         <v>716</v>
       </c>
       <c r="I242" s="3">
-        <v>982.198</v>
+        <v>991.734</v>
       </c>
       <c r="J242" t="s">
         <v>382</v>
@@ -41291,7 +41291,7 @@
         <v>287</v>
       </c>
       <c r="I243" s="3">
-        <v>26.64</v>
+        <v>26.898</v>
       </c>
       <c r="J243" t="s">
         <v>385</v>
@@ -41323,7 +41323,7 @@
         <v>718</v>
       </c>
       <c r="I244" s="3">
-        <v>19132.179</v>
+        <v>19317.928</v>
       </c>
       <c r="J244" t="s">
         <v>382</v>
@@ -41355,7 +41355,7 @@
         <v>720</v>
       </c>
       <c r="I245" s="3">
-        <v>107.93</v>
+        <v>108.978</v>
       </c>
       <c r="J245" t="s">
         <v>385</v>
@@ -41387,7 +41387,7 @@
         <v>722</v>
       </c>
       <c r="I246" s="3">
-        <v>755.47</v>
+        <v>762.804</v>
       </c>
       <c r="J246" t="s">
         <v>382</v>
@@ -41419,7 +41419,7 @@
         <v>293</v>
       </c>
       <c r="I247" s="3">
-        <v>20277.772</v>
+        <v>20474.644</v>
       </c>
       <c r="J247" t="s">
         <v>382</v>
@@ -41451,7 +41451,7 @@
         <v>724</v>
       </c>
       <c r="I248" s="3">
-        <v>25.507</v>
+        <v>25.754</v>
       </c>
       <c r="J248" t="s">
         <v>385</v>
@@ -41483,7 +41483,7 @@
         <v>726</v>
       </c>
       <c r="I249" s="3">
-        <v>10181.611</v>
+        <v>10280.462</v>
       </c>
       <c r="J249" t="s">
         <v>382</v>
@@ -41515,7 +41515,7 @@
         <v>728</v>
       </c>
       <c r="I250" s="3">
-        <v>187.613</v>
+        <v>189.434</v>
       </c>
       <c r="J250" t="s">
         <v>382</v>
@@ -41547,7 +41547,7 @@
         <v>728</v>
       </c>
       <c r="I251" s="3">
-        <v>156.393</v>
+        <v>157.912</v>
       </c>
       <c r="J251" t="s">
         <v>382</v>
@@ -41579,7 +41579,7 @@
         <v>730</v>
       </c>
       <c r="I252" s="3">
-        <v>111.033</v>
+        <v>112.111</v>
       </c>
       <c r="J252" t="s">
         <v>382</v>
@@ -41611,7 +41611,7 @@
         <v>732</v>
       </c>
       <c r="I253" s="3">
-        <v>11958.423</v>
+        <v>12074.524</v>
       </c>
       <c r="J253" t="s">
         <v>382</v>
@@ -41643,7 +41643,7 @@
         <v>734</v>
       </c>
       <c r="I254" s="3">
-        <v>1734.797</v>
+        <v>1751.64</v>
       </c>
       <c r="J254" t="s">
         <v>382</v>
@@ -41675,7 +41675,7 @@
         <v>736</v>
       </c>
       <c r="I255" s="3">
-        <v>489.186</v>
+        <v>493.935</v>
       </c>
       <c r="J255" t="s">
         <v>385</v>
@@ -41707,7 +41707,7 @@
         <v>738</v>
       </c>
       <c r="I256" s="3">
-        <v>68.67400000000001</v>
+        <v>69.34</v>
       </c>
       <c r="J256" t="s">
         <v>382</v>
@@ -41739,7 +41739,7 @@
         <v>740</v>
       </c>
       <c r="I257" s="3">
-        <v>260.824</v>
+        <v>263.356</v>
       </c>
       <c r="J257" t="s">
         <v>382</v>
@@ -41771,7 +41771,7 @@
         <v>324</v>
       </c>
       <c r="I258" s="3">
-        <v>84.943</v>
+        <v>85.768</v>
       </c>
       <c r="J258" t="s">
         <v>382</v>
@@ -41803,7 +41803,7 @@
         <v>742</v>
       </c>
       <c r="I259" s="3">
-        <v>105.344</v>
+        <v>106.367</v>
       </c>
       <c r="J259" t="s">
         <v>382</v>
@@ -41835,7 +41835,7 @@
         <v>744</v>
       </c>
       <c r="I260" s="3">
-        <v>218.278</v>
+        <v>220.397</v>
       </c>
       <c r="J260" t="s">
         <v>385</v>
@@ -41867,7 +41867,7 @@
         <v>746</v>
       </c>
       <c r="I261" s="3">
-        <v>72.617</v>
+        <v>73.322</v>
       </c>
       <c r="J261" t="s">
         <v>382</v>
@@ -41899,7 +41899,7 @@
         <v>327</v>
       </c>
       <c r="I262" s="3">
-        <v>456.488</v>
+        <v>460.92</v>
       </c>
       <c r="J262" t="s">
         <v>382</v>
@@ -41931,7 +41931,7 @@
         <v>327</v>
       </c>
       <c r="I263" s="3">
-        <v>1023.049</v>
+        <v>1032.981</v>
       </c>
       <c r="J263" t="s">
         <v>382</v>
@@ -41963,7 +41963,7 @@
         <v>748</v>
       </c>
       <c r="I264" s="3">
-        <v>2.838</v>
+        <v>2.866</v>
       </c>
       <c r="J264" t="s">
         <v>749</v>
@@ -41995,7 +41995,7 @@
         <v>751</v>
       </c>
       <c r="I265" s="3">
-        <v>113.927</v>
+        <v>115.034</v>
       </c>
       <c r="J265" t="s">
         <v>382</v>
@@ -42027,7 +42027,7 @@
         <v>753</v>
       </c>
       <c r="I266" s="3">
-        <v>1082.732</v>
+        <v>1093.244</v>
       </c>
       <c r="J266" t="s">
         <v>382</v>
@@ -42059,7 +42059,7 @@
         <v>753</v>
       </c>
       <c r="I267" s="3">
-        <v>269.212</v>
+        <v>271.825</v>
       </c>
       <c r="J267" t="s">
         <v>385</v>
@@ -42091,7 +42091,7 @@
         <v>336</v>
       </c>
       <c r="I268" s="3">
-        <v>92.563</v>
+        <v>93.462</v>
       </c>
       <c r="J268" t="s">
         <v>382</v>
@@ -42123,7 +42123,7 @@
         <v>339</v>
       </c>
       <c r="I269" s="3">
-        <v>164.486</v>
+        <v>166.083</v>
       </c>
       <c r="J269" t="s">
         <v>382</v>
@@ -42155,7 +42155,7 @@
         <v>339</v>
       </c>
       <c r="I270" s="3">
-        <v>3330.318</v>
+        <v>3362.651</v>
       </c>
       <c r="J270" t="s">
         <v>382</v>
@@ -42187,7 +42187,7 @@
         <v>755</v>
       </c>
       <c r="I271" s="3">
-        <v>105.074</v>
+        <v>106.094</v>
       </c>
       <c r="J271" t="s">
         <v>382</v>
@@ -42219,7 +42219,7 @@
         <v>757</v>
       </c>
       <c r="I272" s="3">
-        <v>275.323</v>
+        <v>277.996</v>
       </c>
       <c r="J272" t="s">
         <v>382</v>
@@ -42251,7 +42251,7 @@
         <v>343</v>
       </c>
       <c r="I273" s="3">
-        <v>149.159</v>
+        <v>150.607</v>
       </c>
       <c r="J273" t="s">
         <v>382</v>
@@ -42283,7 +42283,7 @@
         <v>759</v>
       </c>
       <c r="I274" s="3">
-        <v>43.916</v>
+        <v>44.342</v>
       </c>
       <c r="J274" t="s">
         <v>385</v>
@@ -42315,7 +42315,7 @@
         <v>345</v>
       </c>
       <c r="I275" s="3">
-        <v>109.401</v>
+        <v>110.463</v>
       </c>
       <c r="J275" t="s">
         <v>382</v>
@@ -42347,7 +42347,7 @@
         <v>347</v>
       </c>
       <c r="I276" s="3">
-        <v>254.618</v>
+        <v>257.09</v>
       </c>
       <c r="J276" t="s">
         <v>382</v>
@@ -42379,7 +42379,7 @@
         <v>761</v>
       </c>
       <c r="I277" s="3">
-        <v>523.277</v>
+        <v>528.357</v>
       </c>
       <c r="J277" t="s">
         <v>385</v>
@@ -42411,7 +42411,7 @@
         <v>761</v>
       </c>
       <c r="I278" s="3">
-        <v>3060.875</v>
+        <v>3090.592</v>
       </c>
       <c r="J278" t="s">
         <v>382</v>
@@ -42443,7 +42443,7 @@
         <v>763</v>
       </c>
       <c r="I279" s="3">
-        <v>109.593</v>
+        <v>110.657</v>
       </c>
       <c r="J279" t="s">
         <v>382</v>
@@ -42475,7 +42475,7 @@
         <v>350</v>
       </c>
       <c r="I280" s="3">
-        <v>241.658</v>
+        <v>244.004</v>
       </c>
       <c r="J280" t="s">
         <v>385</v>
@@ -42507,7 +42507,7 @@
         <v>765</v>
       </c>
       <c r="I281" s="3">
-        <v>305.798</v>
+        <v>308.767</v>
       </c>
       <c r="J281" t="s">
         <v>385</v>
@@ -42539,7 +42539,7 @@
         <v>357</v>
       </c>
       <c r="I282" s="3">
-        <v>118.193</v>
+        <v>119.341</v>
       </c>
       <c r="J282" t="s">
         <v>382</v>
@@ -42571,7 +42571,7 @@
         <v>767</v>
       </c>
       <c r="I283" s="3">
-        <v>1071.571</v>
+        <v>1081.975</v>
       </c>
       <c r="J283" t="s">
         <v>382</v>
@@ -42603,7 +42603,7 @@
         <v>366</v>
       </c>
       <c r="I284" s="3">
-        <v>491.846</v>
+        <v>496.622</v>
       </c>
       <c r="J284" t="s">
         <v>382</v>
@@ -42635,7 +42635,7 @@
         <v>769</v>
       </c>
       <c r="I285" s="3">
-        <v>122.778</v>
+        <v>123.97</v>
       </c>
       <c r="J285" t="s">
         <v>382</v>
@@ -42667,7 +42667,7 @@
         <v>769</v>
       </c>
       <c r="I286" s="3">
-        <v>275.667</v>
+        <v>278.344</v>
       </c>
       <c r="J286" t="s">
         <v>382</v>
@@ -42699,7 +42699,7 @@
         <v>769</v>
       </c>
       <c r="I287" s="3">
-        <v>1032.358</v>
+        <v>1042.381</v>
       </c>
       <c r="J287" t="s">
         <v>382</v>
@@ -42731,7 +42731,7 @@
         <v>771</v>
       </c>
       <c r="I288" s="3">
-        <v>112.431</v>
+        <v>113.523</v>
       </c>
       <c r="J288" t="s">
         <v>382</v>
@@ -42763,7 +42763,7 @@
         <v>771</v>
       </c>
       <c r="I289" s="3">
-        <v>111.35</v>
+        <v>112.431</v>
       </c>
       <c r="J289" t="s">
         <v>382</v>
@@ -42795,7 +42795,7 @@
         <v>773</v>
       </c>
       <c r="I290" s="3">
-        <v>143.187</v>
+        <v>144.577</v>
       </c>
       <c r="J290" t="s">
         <v>382</v>
@@ -42827,7 +42827,7 @@
         <v>773</v>
       </c>
       <c r="I291" s="3">
-        <v>147.984</v>
+        <v>149.42</v>
       </c>
       <c r="J291" t="s">
         <v>382</v>
@@ -42859,7 +42859,7 @@
         <v>773</v>
       </c>
       <c r="I292" s="3">
-        <v>103.164</v>
+        <v>104.165</v>
       </c>
       <c r="J292" t="s">
         <v>382</v>
@@ -42891,7 +42891,7 @@
         <v>775</v>
       </c>
       <c r="I293" s="3">
-        <v>469.718</v>
+        <v>474.279</v>
       </c>
       <c r="J293" t="s">
         <v>382</v>
@@ -42923,7 +42923,7 @@
         <v>777</v>
       </c>
       <c r="I294" s="3">
-        <v>114.833</v>
+        <v>115.948</v>
       </c>
       <c r="J294" t="s">
         <v>382</v>
@@ -42955,7 +42955,7 @@
         <v>372</v>
       </c>
       <c r="I295" s="3">
-        <v>65.331</v>
+        <v>65.965</v>
       </c>
       <c r="J295" t="s">
         <v>385</v>
@@ -42987,7 +42987,7 @@
         <v>374</v>
       </c>
       <c r="I296" s="3">
-        <v>1182.63</v>
+        <v>1194.112</v>
       </c>
       <c r="J296" t="s">
         <v>382</v>
@@ -43019,7 +43019,7 @@
         <v>779</v>
       </c>
       <c r="I297" s="3">
-        <v>492.041</v>
+        <v>496.818</v>
       </c>
       <c r="J297" t="s">
         <v>382</v>
@@ -53452,7 +53452,7 @@
         <v>48</v>
       </c>
       <c r="I2" s="3">
-        <v>4.431</v>
+        <v>4.474</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -53484,7 +53484,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="3">
-        <v>5.219</v>
+        <v>5.269</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
@@ -53516,7 +53516,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="3">
-        <v>11.52</v>
+        <v>11.632</v>
       </c>
       <c r="J4" t="s">
         <v>64</v>
@@ -53548,7 +53548,7 @@
         <v>84</v>
       </c>
       <c r="I5" s="3">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="J5" t="s">
         <v>85</v>
@@ -53580,7 +53580,7 @@
         <v>134</v>
       </c>
       <c r="I6" s="3">
-        <v>0.291</v>
+        <v>0.294</v>
       </c>
       <c r="J6" t="s">
         <v>136</v>
@@ -53612,7 +53612,7 @@
         <v>144</v>
       </c>
       <c r="I7" s="3">
-        <v>6.211</v>
+        <v>6.272</v>
       </c>
       <c r="J7" t="s">
         <v>145</v>
@@ -53644,7 +53644,7 @@
         <v>155</v>
       </c>
       <c r="I8" s="3">
-        <v>0.229</v>
+        <v>0.231</v>
       </c>
       <c r="J8" t="s">
         <v>156</v>
@@ -53676,7 +53676,7 @@
         <v>162</v>
       </c>
       <c r="I9" s="3">
-        <v>0.997</v>
+        <v>1.006</v>
       </c>
       <c r="J9" t="s">
         <v>163</v>
@@ -53708,7 +53708,7 @@
         <v>167</v>
       </c>
       <c r="I10" s="3">
-        <v>3.078</v>
+        <v>3.108</v>
       </c>
       <c r="J10" t="s">
         <v>168</v>
@@ -53740,7 +53740,7 @@
         <v>189</v>
       </c>
       <c r="I11" s="3">
-        <v>0.951</v>
+        <v>0.96</v>
       </c>
       <c r="J11" t="s">
         <v>190</v>
@@ -53772,7 +53772,7 @@
         <v>191</v>
       </c>
       <c r="I12" s="3">
-        <v>2.58</v>
+        <v>2.605</v>
       </c>
       <c r="J12" t="s">
         <v>192</v>
@@ -53804,7 +53804,7 @@
         <v>207</v>
       </c>
       <c r="I13" s="3">
-        <v>0.5629999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J13" t="s">
         <v>208</v>
@@ -53836,7 +53836,7 @@
         <v>196</v>
       </c>
       <c r="I14" s="3">
-        <v>1.296</v>
+        <v>1.309</v>
       </c>
       <c r="J14" t="s">
         <v>197</v>
@@ -53900,7 +53900,7 @@
         <v>241</v>
       </c>
       <c r="I16" s="3">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="J16" t="s">
         <v>242</v>
@@ -53932,7 +53932,7 @@
         <v>246</v>
       </c>
       <c r="I17" s="3">
-        <v>0.649</v>
+        <v>0.656</v>
       </c>
       <c r="J17" t="s">
         <v>247</v>
@@ -53964,7 +53964,7 @@
         <v>253</v>
       </c>
       <c r="I18" s="3">
-        <v>3.306</v>
+        <v>3.338</v>
       </c>
       <c r="J18" t="s">
         <v>254</v>
@@ -53996,7 +53996,7 @@
         <v>278</v>
       </c>
       <c r="I19" s="3">
-        <v>0.379</v>
+        <v>0.383</v>
       </c>
       <c r="J19" t="s">
         <v>279</v>
@@ -54028,7 +54028,7 @@
         <v>301</v>
       </c>
       <c r="I20" s="3">
-        <v>0.436</v>
+        <v>0.441</v>
       </c>
       <c r="J20" t="s">
         <v>302</v>
@@ -54060,7 +54060,7 @@
         <v>304</v>
       </c>
       <c r="I21" s="3">
-        <v>0.309</v>
+        <v>0.312</v>
       </c>
       <c r="J21" t="s">
         <v>305</v>
@@ -54092,7 +54092,7 @@
         <v>324</v>
       </c>
       <c r="I22" s="3">
-        <v>3.338</v>
+        <v>3.371</v>
       </c>
       <c r="J22" t="s">
         <v>325</v>
@@ -54124,7 +54124,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="3">
-        <v>3.859</v>
+        <v>3.896</v>
       </c>
       <c r="J23" t="s">
         <v>328</v>
@@ -54156,7 +54156,7 @@
         <v>336</v>
       </c>
       <c r="I24" s="3">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="J24" t="s">
         <v>337</v>
@@ -54188,7 +54188,7 @@
         <v>347</v>
       </c>
       <c r="I25" s="3">
-        <v>1.585</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="s">
         <v>348</v>
@@ -54220,7 +54220,7 @@
         <v>350</v>
       </c>
       <c r="I26" s="3">
-        <v>24.539</v>
+        <v>24.777</v>
       </c>
       <c r="J26" t="s">
         <v>351</v>
@@ -54252,7 +54252,7 @@
         <v>359</v>
       </c>
       <c r="I27" s="3">
-        <v>4.93</v>
+        <v>4.978</v>
       </c>
       <c r="J27" t="s">
         <v>360</v>
@@ -54284,7 +54284,7 @@
         <v>376</v>
       </c>
       <c r="I28" s="3">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="J28" t="s">
         <v>377</v>
